--- a/StructureDefinition-observation-ze.xlsx
+++ b/StructureDefinition-observation-ze.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T07:06:25+00:00</t>
+    <t>2025-10-18T07:16:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
